--- a/assets/spreadsheet/Profile_Creation_fr.xlsx
+++ b/assets/spreadsheet/Profile_Creation_fr.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUNKV\git\ptrs-reltio-tool\assets\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79741FE8-500D-4763-9C97-F45FFB38727A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D791F24-62DB-4C72-B951-6EDD30719E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10125" xr2:uid="{B0F37718-07D2-4991-8FB0-745E7E7B3A4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>BENEF_CATEGORIE</t>
   </si>
@@ -130,7 +130,16 @@
     <t>BENEF_OBJECTSOCIAL</t>
   </si>
   <si>
-    <t>HCO/HCP
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>M / F / O</t>
+  </si>
+  <si>
+    <t>Territory Code</t>
+  </si>
+  <si>
+    <t>HCO / HCP
 Fields=&gt;</t>
   </si>
 </sst>
@@ -138,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +163,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -201,19 +203,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -230,6 +239,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,26 +292,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,15 +637,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98586ED2-7071-461C-B095-8C40D150E7BD}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -634,266 +664,278 @@
     <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" customWidth="1"/>
+    <col min="32" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AC3" s="8"/>
+    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AC3" s="6"/>
     </row>
-    <row r="4" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
+    <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+    <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+    <row r="7" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
